--- a/五毒神掌刷题记录.xlsx
+++ b/五毒神掌刷题记录.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$2</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,102 @@
   </si>
   <si>
     <t>数组实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小的k个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指offer40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大根堆，优先队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指offer49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前K个高频元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆，数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序, 小根堆，优先队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的字母异位词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N叉树的前序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归，迭代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母异位词分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的前序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N叉树的层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS,BFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,8 +307,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="[=0]&quot;&quot;;General"/>
-    <numFmt numFmtId="184" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="[=0]&quot;&quot;;General"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -276,13 +372,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -294,10 +390,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,11 +676,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -600,98 +696,87 @@
     <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="3">
+        <f>SUBTOTAL(3,B3:B200)</f>
+        <v>30</v>
+      </c>
+      <c r="F1" s="3">
+        <f>SUBTOTAL(9,F3:F200)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="4">
-        <f>COUNTA(G2:P2)</f>
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
-        <v>44069</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4">
-        <f>COUNTA(G3:P3)</f>
-        <v>2</v>
+        <f t="shared" ref="F3:F34" si="0">COUNTA(G3:P3)</f>
+        <v>3</v>
       </c>
       <c r="G3" s="9">
-        <v>44067</v>
+        <v>44069</v>
       </c>
       <c r="H3" s="9">
-        <v>44069</v>
+        <v>44077</v>
+      </c>
+      <c r="I3" s="9">
+        <v>44079</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7">
         <v>2</v>
@@ -700,70 +785,79 @@
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F4" s="4">
-        <f>COUNTA(G4:P4)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G4" s="9">
+        <v>44067</v>
+      </c>
+      <c r="H4" s="9">
         <v>44069</v>
+      </c>
+      <c r="I4" s="9">
+        <v>44076</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4">
-        <f>COUNTA(G5:P5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="9">
-        <v>44073</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F6" s="4">
-        <f>COUNTA(G6:P6)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G6" s="9">
         <v>44073</v>
       </c>
+      <c r="H6" s="9">
+        <v>44077</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -772,109 +866,109 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4">
-        <f>COUNTA(G7:P7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="9">
-        <v>44070</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="4">
-        <f>COUNTA(G8:P8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>44070</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4">
-        <f>COUNTA(G9:P9)</f>
-        <v>2</v>
-      </c>
-      <c r="G9" s="9">
-        <v>44068</v>
-      </c>
-      <c r="H9" s="9">
-        <v>44070</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="4">
-        <f>COUNTA(G10:P10)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>44068</v>
+      </c>
+      <c r="H10" s="9">
+        <v>44070</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="F11" s="4">
-        <f>COUNTA(G11:P11)</f>
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>44073</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -886,55 +980,61 @@
         <v>22</v>
       </c>
       <c r="F12" s="4">
-        <f>COUNTA(G12:P12)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G12" s="9">
-        <v>44069</v>
+        <v>44073</v>
+      </c>
+      <c r="H12" s="9">
+        <v>44076</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4">
-        <f>COUNTA(G13:P13)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G13" s="9">
-        <v>44073</v>
+        <v>44069</v>
+      </c>
+      <c r="H13" s="9">
+        <v>44077</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F14" s="4">
-        <f>COUNTA(G14:P14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="9">
@@ -943,681 +1043,906 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>141</v>
+        <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F15" s="4">
-        <f>COUNTA(G15:P15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="9">
-        <v>44070</v>
+        <v>44073</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4">
-        <f>COUNTA(G16:P16)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G16" s="9">
         <v>44070</v>
       </c>
+      <c r="H16" s="9">
+        <v>44076</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F17" s="4">
-        <f>COUNTA(G17:P17)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G17" s="9">
-        <v>44073</v>
+        <v>44070</v>
+      </c>
+      <c r="H17" s="9">
+        <v>44077</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4">
-        <f>COUNTA(G18:P18)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G18" s="9">
-        <v>44069</v>
+        <v>44073</v>
+      </c>
+      <c r="H18" s="9">
+        <v>44076</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F19" s="4">
-        <f>COUNTA(G19:P19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="9">
-        <v>44070</v>
+        <v>44069</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F20" s="4">
-        <f>COUNTA(G20:P20)</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G20" s="9">
-        <v>44064</v>
-      </c>
-      <c r="H20" s="9">
-        <v>44069</v>
+        <v>44070</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
+        <v>283</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>44064</v>
+      </c>
+      <c r="H21" s="9">
+        <v>44069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>641</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="4">
-        <f>COUNTA(G21:P21)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
         <v>44073</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F22" s="4">
-        <f>COUNTA(G22:P22)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="F23" s="4">
-        <f>COUNTA(G23:P23)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="9">
+        <v>44076</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>239</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="7">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F24" s="4">
-        <f>COUNTA(G24:P24)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>44076</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>58</v>
+      </c>
       <c r="F25" s="4">
-        <f>COUNTA(G25:P25)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G25" s="9">
+        <v>44076</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>347</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="F26" s="4">
-        <f>COUNTA(G26:P26)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>44080</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>242</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F27" s="4">
-        <f>COUNTA(G27:P27)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>44076</v>
+      </c>
+      <c r="H27" s="9">
+        <v>44079</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>589</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F28" s="4">
-        <f>COUNTA(G28:P28)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>44079</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>49</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="F29" s="4">
-        <f>COUNTA(G29:P29)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G29" s="9">
+        <v>44077</v>
+      </c>
+      <c r="H29" s="9">
+        <v>44079</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>94</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F30" s="4">
-        <f>COUNTA(G30:P30)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G30" s="9">
+        <v>44076</v>
+      </c>
+      <c r="H30" s="9">
+        <v>44078</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>144</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="F31" s="4">
-        <f>COUNTA(G31:P31)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G31" s="9">
+        <v>44076</v>
+      </c>
+      <c r="H31" s="9">
+        <v>44078</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>429</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F32" s="4">
-        <f>COUNTA(G32:P32)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
+        <v>44079</v>
       </c>
     </row>
     <row r="33" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F33" s="4">
-        <f>COUNTA(G33:P33)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F34" s="4">
-        <f>COUNTA(G34:P34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F35" s="4">
-        <f>COUNTA(G35:P35)</f>
+        <f t="shared" ref="F35:F66" si="1">COUNTA(G35:P35)</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F36" s="4">
-        <f>COUNTA(G36:P36)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F37" s="4">
-        <f>COUNTA(G37:P37)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F38" s="4">
-        <f>COUNTA(G38:P38)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F39" s="4">
-        <f>COUNTA(G39:P39)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F40" s="4">
-        <f>COUNTA(G40:P40)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F41" s="4">
-        <f>COUNTA(G41:P41)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F42" s="4">
-        <f>COUNTA(G42:P42)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F43" s="4">
-        <f>COUNTA(G43:P43)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F44" s="4">
-        <f>COUNTA(G44:P44)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F45" s="4">
-        <f>COUNTA(G45:P45)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F46" s="4">
-        <f>COUNTA(G46:P46)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F47" s="4">
-        <f>COUNTA(G47:P47)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F48" s="4">
-        <f>COUNTA(G48:P48)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="4">
-        <f>COUNTA(G49:P49)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F50" s="4">
-        <f>COUNTA(G50:P50)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F51" s="4">
-        <f>COUNTA(G51:P51)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F52" s="4">
-        <f>COUNTA(G52:P52)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F53" s="4">
-        <f>COUNTA(G53:P53)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F54" s="4">
-        <f>COUNTA(G54:P54)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F55" s="4">
-        <f>COUNTA(G55:P55)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F56" s="4">
-        <f>COUNTA(G56:P56)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F57" s="4">
-        <f>COUNTA(G57:P57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F58" s="4">
-        <f>COUNTA(G58:P58)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F59" s="4">
-        <f>COUNTA(G59:P59)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F60" s="4">
-        <f>COUNTA(G60:P60)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F61" s="4">
-        <f>COUNTA(G61:P61)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F62" s="4">
-        <f>COUNTA(G62:P62)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F63" s="4">
-        <f>COUNTA(G63:P63)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F64" s="4">
-        <f>COUNTA(G64:P64)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F65" s="4">
-        <f>COUNTA(G65:P65)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F66" s="4">
-        <f>COUNTA(G66:P66)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F67" s="4">
-        <f>COUNTA(G67:P67)</f>
+        <f t="shared" ref="F67:F98" si="2">COUNTA(G67:P67)</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F68" s="4">
-        <f>COUNTA(G68:P68)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F69" s="4">
-        <f>COUNTA(G69:P69)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F70" s="4">
-        <f>COUNTA(G70:P70)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F71" s="4">
-        <f>COUNTA(G71:P71)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F72" s="4">
-        <f>COUNTA(G72:P72)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F73" s="4">
-        <f>COUNTA(G73:P73)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F74" s="4">
-        <f>COUNTA(G74:P74)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F75" s="4">
-        <f>COUNTA(G75:P75)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F76" s="4">
-        <f>COUNTA(G76:P76)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F77" s="4">
-        <f>COUNTA(G77:P77)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F78" s="4">
-        <f>COUNTA(G78:P78)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F79" s="4">
-        <f>COUNTA(G79:P79)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F80" s="4">
-        <f>COUNTA(G80:P80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="4">
-        <f>COUNTA(G81:P81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="4">
-        <f>COUNTA(G82:P82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="4">
-        <f>COUNTA(G83:P83)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="4">
-        <f>COUNTA(G84:P84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="4">
-        <f>COUNTA(G85:P85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="4">
-        <f>COUNTA(G86:P86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="4">
-        <f>COUNTA(G87:P87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="4">
-        <f>COUNTA(G88:P88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="4">
-        <f>COUNTA(G89:P89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="4">
-        <f>COUNTA(G90:P90)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="4">
-        <f>COUNTA(G91:P91)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="4">
-        <f>COUNTA(G92:P92)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="4">
-        <f>COUNTA(G93:P93)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="4">
-        <f>COUNTA(G94:P94)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="4">
-        <f>COUNTA(G95:P95)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="4">
-        <f>COUNTA(G96:P96)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F97" s="4">
-        <f>COUNTA(G97:P97)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F98" s="4">
-        <f>COUNTA(G98:P98)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="4">
-        <f>COUNTA(G99:P99)</f>
+        <f t="shared" ref="F99:F130" si="3">COUNTA(G99:P99)</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F100" s="4">
-        <f>COUNTA(G100:P100)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F101" s="4">
-        <f>COUNTA(G101:P101)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F102" s="4">
-        <f>COUNTA(G102:P102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F103" s="4">
-        <f>COUNTA(G103:P103)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F104" s="4">
-        <f>COUNTA(G104:P104)</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F105" s="4">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1">
+  <autoFilter ref="A2:K2">
     <sortState ref="A2:K101">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F2:F304">
+  <conditionalFormatting sqref="F3:F305">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1653,7 +1978,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F2:F304</xm:sqref>
+          <xm:sqref>F3:F305</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="1" id="{FCE65057-6C5E-4538-994B-30D1802060EB}">

--- a/五毒神掌刷题记录.xlsx
+++ b/五毒神掌刷题记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,178 +127,256 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>K个一组翻转链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除排序数组中的重复项</t>
+  </si>
+  <si>
+    <t>旋转数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个有序链表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并两个有序数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计循环双端队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接雨水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双端队列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序+新建空head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柱状图中最大的矩形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小的k个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指offer40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丑数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑指offer49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前K个高频元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆，数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效的字母异位词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N叉树的前序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母异位词分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的前序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N叉树的层序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迭代,递归</t>
+  </si>
+  <si>
+    <t>迭代,单调栈</t>
+  </si>
+  <si>
     <t>hash表,快慢指针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>K个一组翻转链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除排序数组中的重复项</t>
-  </si>
-  <si>
-    <t>旋转数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3次翻转,循环替换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并两个有序链表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并两个有序数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计循环双端队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接雨水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双端队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序+新建空head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效的括号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柱状图中最大的矩形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迭代,单调栈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最小的k个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指offer40</t>
+  </si>
+  <si>
+    <t>排序, 小根堆,优先队列</t>
+  </si>
+  <si>
+    <t>大根堆,优先队列</t>
+  </si>
+  <si>
+    <t>递归,迭代</t>
+  </si>
+  <si>
+    <t>DFS,BFS</t>
+  </si>
+  <si>
+    <t>递归,DFS</t>
+  </si>
+  <si>
+    <t>翻转二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归,前序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证二叉搜索树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归,中序遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的最大深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归,前序遍历,DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的最小深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的最近公共祖先</t>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的序列化与反序列化</t>
+  </si>
+  <si>
+    <t>层序遍历，构建堆?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>全排列</t>
+  </si>
+  <si>
+    <t>全排列 II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑动窗口最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大根堆，优先队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丑数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑指offer49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前K个高频元素</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>堆，数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序, 小根堆，优先队列</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态规划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效的字母异位词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hash表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N叉树的前序遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>递归，迭代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字母异位词分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树的中序遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树的前序遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二叉树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N叉树的层序遍历</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS,BFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +419,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +429,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,6 +478,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,8 +778,8 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23:B32"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -699,11 +798,11 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3">
         <f>SUBTOTAL(3,B3:B200)</f>
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F1" s="3">
         <f>SUBTOTAL(9,F3:F200)</f>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -830,13 +929,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>22</v>
@@ -857,7 +956,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
@@ -866,7 +965,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
@@ -905,7 +1004,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
@@ -923,7 +1022,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -950,7 +1049,7 @@
         <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
@@ -968,7 +1067,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -1004,17 +1103,20 @@
         <v>11</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" s="9">
         <v>44069</v>
       </c>
       <c r="H13" s="9">
         <v>44077</v>
+      </c>
+      <c r="I13" s="9">
+        <v>44081</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1022,16 +1124,16 @@
         <v>84</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" si="0"/>
@@ -1046,7 +1148,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -1055,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
@@ -1106,7 +1208,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
@@ -1124,16 +1226,16 @@
         <v>155</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
@@ -1151,7 +1253,7 @@
         <v>189</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
@@ -1160,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
@@ -1226,16 +1328,16 @@
         <v>641</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="7">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
@@ -1247,19 +1349,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
@@ -1274,16 +1376,16 @@
         <v>239</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C24" s="7">
         <v>3</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
@@ -1295,19 +1397,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="0"/>
@@ -1322,16 +1424,16 @@
         <v>347</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
@@ -1346,16 +1448,16 @@
         <v>242</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="0"/>
@@ -1373,16 +1475,16 @@
         <v>589</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E28" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="0"/>
@@ -1397,16 +1499,16 @@
         <v>49</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C29" s="7">
         <v>2</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="0"/>
@@ -1424,16 +1526,16 @@
         <v>94</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="0"/>
@@ -1451,16 +1553,16 @@
         <v>144</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C31" s="7">
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="0"/>
@@ -1478,16 +1580,16 @@
         <v>429</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C32" s="7">
         <v>2</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="0"/>
@@ -1497,97 +1599,299 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>79</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="7">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="F33" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G33" s="9">
+        <v>44087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>226</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="F34" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>44081</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>98</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F35" s="4">
         <f t="shared" ref="F35:F66" si="1">COUNTA(G35:P35)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G35" s="9">
+        <v>44082</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>104</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="F36" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>111</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F37" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F38" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="10">
+        <v>297</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="11">
+        <v>3</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G38" s="14">
+        <v>44085</v>
+      </c>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>236</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="7">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="F39" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G39" s="9">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>105</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="7">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F40" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <v>44083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="7">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F41" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G41" s="9">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>46</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F42" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>47</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="7">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="F43" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G43" s="9">
+        <v>44084</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F44" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F46" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F47" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F48" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1895,7 +2199,7 @@
     </row>
     <row r="99" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F99" s="4">
-        <f t="shared" ref="F99:F130" si="3">COUNTA(G99:P99)</f>
+        <f t="shared" ref="F99:F105" si="3">COUNTA(G99:P99)</f>
         <v>0</v>
       </c>
     </row>

--- a/五毒神掌刷题记录.xlsx
+++ b/五毒神掌刷题记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,6 +377,138 @@
   </si>
   <si>
     <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>括号生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小基因变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归,DFS,BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右子之和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三步问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试题 08.01</t>
+  </si>
+  <si>
+    <t>递归,迭代,数学归纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶乘尾数</t>
+  </si>
+  <si>
+    <t>面试题 16.05</t>
+  </si>
+  <si>
+    <t>递归,迭代,数学公式: 2*5=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>DFS,BFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在每个树行中找最大值</t>
+  </si>
+  <si>
+    <t>单词接龙</t>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS,与最小基因变化几乎一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词接龙II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS,难度较高,暂时无法全部理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发饼干</t>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法,排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跃游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柠檬水找零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>x的平方根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分查找,牛顿迭代法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛屿数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫雷游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,8 +910,8 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -790,19 +922,19 @@
     <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3">
         <f>SUBTOTAL(3,B3:B200)</f>
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F1" s="3">
         <f>SUBTOTAL(9,F3:F200)</f>
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -1107,7 +1239,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G13" s="9">
         <v>44069</v>
@@ -1117,6 +1249,9 @@
       </c>
       <c r="I13" s="9">
         <v>44081</v>
+      </c>
+      <c r="J13" s="9">
+        <v>44088</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1194,7 +1329,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>142</v>
       </c>
@@ -1221,7 +1356,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>155</v>
       </c>
@@ -1248,7 +1383,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>189</v>
       </c>
@@ -1272,7 +1407,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>206</v>
       </c>
@@ -1296,7 +1431,7 @@
         <v>44070</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>283</v>
       </c>
@@ -1323,7 +1458,7 @@
         <v>44069</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>641</v>
       </c>
@@ -1347,7 +1482,7 @@
         <v>44073</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
@@ -1371,7 +1506,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>239</v>
       </c>
@@ -1395,7 +1530,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>50</v>
       </c>
@@ -1419,7 +1554,7 @@
         <v>44076</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>347</v>
       </c>
@@ -1443,7 +1578,7 @@
         <v>44080</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>242</v>
       </c>
@@ -1470,7 +1605,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>589</v>
       </c>
@@ -1488,13 +1623,16 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" s="9">
         <v>44079</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="9">
+        <v>44088</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>49</v>
       </c>
@@ -1521,7 +1659,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>94</v>
       </c>
@@ -1539,7 +1677,7 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="9">
         <v>44076</v>
@@ -1547,8 +1685,11 @@
       <c r="H30" s="9">
         <v>44078</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="9">
+        <v>44090</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>144</v>
       </c>
@@ -1575,7 +1716,7 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>429</v>
       </c>
@@ -1593,10 +1734,13 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" s="9">
         <v>44079</v>
+      </c>
+      <c r="H32" s="9">
+        <v>44088</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1641,10 +1785,16 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="9">
         <v>44081</v>
+      </c>
+      <c r="H34" s="9">
+        <v>44088</v>
+      </c>
+      <c r="I34" s="9">
+        <v>44090</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1665,10 +1815,13 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" ref="F35:F66" si="1">COUNTA(G35:P35)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" s="9">
         <v>44082</v>
+      </c>
+      <c r="H35" s="9">
+        <v>44088</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1689,10 +1842,13 @@
       </c>
       <c r="F36" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="9">
         <v>44083</v>
+      </c>
+      <c r="H36" s="9">
+        <v>44088</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -1713,10 +1869,13 @@
       </c>
       <c r="F37" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" s="9">
         <v>44084</v>
+      </c>
+      <c r="H37" s="9">
+        <v>44088</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -1737,12 +1896,14 @@
       </c>
       <c r="F38" s="13">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G38" s="14">
         <v>44085</v>
       </c>
-      <c r="H38" s="14"/>
+      <c r="H38" s="14">
+        <v>44088</v>
+      </c>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -1765,10 +1926,13 @@
       </c>
       <c r="F39" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" s="9">
         <v>44084</v>
+      </c>
+      <c r="H39" s="9">
+        <v>44088</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -1789,10 +1953,13 @@
       </c>
       <c r="F40" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" s="9">
         <v>44083</v>
+      </c>
+      <c r="H40" s="9">
+        <v>44088</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -1813,10 +1980,13 @@
       </c>
       <c r="F41" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="9">
         <v>44084</v>
+      </c>
+      <c r="H41" s="9">
+        <v>44088</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -1837,10 +2007,13 @@
       </c>
       <c r="F42" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42" s="9">
         <v>44084</v>
+      </c>
+      <c r="H42" s="9">
+        <v>44088</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1861,133 +2034,428 @@
       </c>
       <c r="F43" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="9">
         <v>44084</v>
       </c>
+      <c r="H43" s="9">
+        <v>44088</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>22</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="7">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="F44" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G44" s="9">
+        <v>44081</v>
+      </c>
+      <c r="H44" s="9">
+        <v>44088</v>
+      </c>
+      <c r="I44" s="9">
+        <v>44090</v>
+      </c>
+      <c r="J44" s="9">
+        <v>44093</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>433</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="7">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="F45" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G45" s="9">
+        <v>44090</v>
+      </c>
+      <c r="H45" s="9">
+        <v>44093</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>413</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="F46" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
+        <v>44093</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="F47" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G47" s="9">
+        <v>44093</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="F48" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>102</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="7">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="F49" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G49" s="9">
+        <v>44091</v>
+      </c>
+      <c r="H49" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>515</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="7">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="F50" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>127</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="7">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="F51" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F52" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G51" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="10">
+        <v>126</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="11">
+        <v>3</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="14">
+        <v>44093</v>
+      </c>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>455</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="7">
+        <v>1</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="F53" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G53" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>55</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" s="7">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F54" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>860</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F55" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G55" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>122</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="F56" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>69</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="F57" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G57" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>200</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="7">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F58" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G58" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>529</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="7">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="F59" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9">
+        <v>44093</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F60" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F61" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F62" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F63" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F64" s="4">
         <f t="shared" si="1"/>
         <v>0</v>

--- a/五毒神掌刷题记录.xlsx
+++ b/五毒神掌刷题记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="150">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,6 +509,90 @@
   </si>
   <si>
     <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解码方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大正方形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务调度器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填桶思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回文子串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP，中心拓展法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长有效括号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈,DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不同路径II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最长公共子序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三角形最小路径和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大子序和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乘积最大子数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打家劫舍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打家劫舍II</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,7 +635,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -561,12 +645,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,19 +690,19 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,8 +988,8 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P40" sqref="P40"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -922,19 +1000,19 @@
     <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="12.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3">
         <f>SUBTOTAL(3,B3:B200)</f>
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F1" s="3">
         <f>SUBTOTAL(9,F3:F200)</f>
-        <v>92</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -1020,7 +1098,7 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="9">
         <v>44067</v>
@@ -1030,6 +1108,9 @@
       </c>
       <c r="I4" s="9">
         <v>44076</v>
+      </c>
+      <c r="J4" s="9">
+        <v>44095</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1050,10 +1131,16 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="9">
         <v>44069</v>
+      </c>
+      <c r="H5" s="9">
+        <v>44095</v>
+      </c>
+      <c r="I5" s="9">
+        <v>44098</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1074,13 +1161,16 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="9">
         <v>44073</v>
       </c>
       <c r="H6" s="9">
         <v>44077</v>
+      </c>
+      <c r="I6" s="9">
+        <v>44098</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1125,10 +1215,13 @@
       </c>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="9">
         <v>44070</v>
+      </c>
+      <c r="H8" s="9">
+        <v>44098</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1144,9 +1237,15 @@
       <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="E9" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="F9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G9" s="9">
+        <v>44098</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1239,7 +1338,7 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G13" s="9">
         <v>44069</v>
@@ -1252,6 +1351,9 @@
       </c>
       <c r="J13" s="9">
         <v>44088</v>
+      </c>
+      <c r="K13" s="9">
+        <v>44095</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1320,13 +1422,16 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="9">
         <v>44070</v>
       </c>
       <c r="H16" s="9">
         <v>44076</v>
+      </c>
+      <c r="I16" s="9">
+        <v>44098</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,13 +1452,16 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="9">
         <v>44070</v>
       </c>
       <c r="H17" s="9">
         <v>44077</v>
+      </c>
+      <c r="I17" s="9">
+        <v>44098</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1374,13 +1482,16 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="9">
         <v>44073</v>
       </c>
       <c r="H18" s="9">
         <v>44076</v>
+      </c>
+      <c r="I18" s="9">
+        <v>44098</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1425,10 +1536,13 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="9">
         <v>44070</v>
+      </c>
+      <c r="H20" s="9">
+        <v>44098</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1449,13 +1563,16 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="9">
         <v>44064</v>
       </c>
       <c r="H21" s="9">
         <v>44069</v>
+      </c>
+      <c r="I21" s="9">
+        <v>44095</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1878,7 +1995,7 @@
         <v>44088</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>297</v>
       </c>
@@ -2432,126 +2549,402 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>64</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="7">
+        <v>2</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F60" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G60" s="9">
+        <v>44114</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>91</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="7">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F61" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G61" s="9">
+        <v>44114</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>221</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" s="7">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F62" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G62" s="9">
+        <v>44114</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>621</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="7">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="F63" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G63" s="9">
+        <v>44114</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>647</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="7">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="F64" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G64" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>32</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="7">
+        <v>3</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>141</v>
+      </c>
       <c r="F65" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="7">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F66" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G66" s="9">
+        <v>44102</v>
+      </c>
+      <c r="H66" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>63</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="7">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F67" s="4">
         <f t="shared" ref="F67:F98" si="2">COUNTA(G67:P67)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G67" s="9">
+        <v>44102</v>
+      </c>
+      <c r="H67" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>1143</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="7">
+        <v>2</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F68" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G68" s="9">
+        <v>44103</v>
+      </c>
+      <c r="H68" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>120</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="7">
+        <v>2</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F69" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G69" s="9">
+        <v>44102</v>
+      </c>
+      <c r="H69" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>53</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="7">
+        <v>1</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F70" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G70" s="9">
+        <v>44102</v>
+      </c>
+      <c r="H70" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>152</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C71" s="7">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F71" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G71" s="9">
+        <v>44102</v>
+      </c>
+      <c r="H71" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>198</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F72" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G72" s="9">
+        <v>44102</v>
+      </c>
+      <c r="H72" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>213</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73" s="7">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="F73" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G73" s="9">
+        <v>44102</v>
+      </c>
+      <c r="H73" s="9">
+        <v>44114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F74" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F75" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F76" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F77" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F78" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F79" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F80" s="4">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/五毒神掌刷题记录.xlsx
+++ b/五毒神掌刷题记录.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$105</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -593,6 +593,52 @@
   </si>
   <si>
     <t>打家劫舍II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解数独</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N皇后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS,并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现 Trie (前缀树)</t>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单词搜索 II</t>
+  </si>
+  <si>
+    <t>字典,数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朋友圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,8 +1034,8 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E75" sqref="E75"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1001,18 +1047,19 @@
     <col min="5" max="5" width="17.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3">
         <f>SUBTOTAL(3,B3:B200)</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3">
         <f>SUBTOTAL(9,F3:F200)</f>
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -2175,7 +2222,7 @@
       </c>
       <c r="F44" s="4">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" s="9">
         <v>44081</v>
@@ -2188,6 +2235,9 @@
       </c>
       <c r="J44" s="9">
         <v>44093</v>
+      </c>
+      <c r="K44" s="9">
+        <v>44122</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2352,10 +2402,13 @@
       </c>
       <c r="F51" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="9">
         <v>44093</v>
+      </c>
+      <c r="H51" s="9">
+        <v>44122</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2514,14 +2567,17 @@
         <v>127</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="F58" s="4">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="9">
         <v>44093</v>
+      </c>
+      <c r="H58" s="9">
+        <v>44122</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2909,33 +2965,138 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>37</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="7">
+        <v>3</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="F74" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G74" s="9">
+        <v>44084</v>
+      </c>
+      <c r="H74" s="9">
+        <v>44122</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>51</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="7">
+        <v>3</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="F75" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G75" s="9">
+        <v>44084</v>
+      </c>
+      <c r="H75" s="9">
+        <v>44122</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>208</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="7">
+        <v>2</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G76" s="9">
+        <v>44114</v>
+      </c>
+      <c r="H76" s="9">
+        <v>44122</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>212</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="7">
+        <v>3</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="F77" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G77" s="9">
+        <v>44114</v>
+      </c>
+      <c r="H77" s="9">
+        <v>44122</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>547</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="7">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="F78" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G78" s="9">
+        <v>44114</v>
+      </c>
+      <c r="H78" s="9">
+        <v>44122</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3101,7 +3262,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2">
+  <autoFilter ref="A2:K105">
     <sortState ref="A2:K101">
       <sortCondition ref="A1"/>
     </sortState>

--- a/五毒神掌刷题记录.xlsx
+++ b/五毒神掌刷题记录.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="171">
   <si>
     <t>题目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,6 +639,41 @@
   </si>
   <si>
     <t>并查集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位1的个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2的幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>颠倒二进制位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N皇后II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比特位计数</t>
+  </si>
+  <si>
+    <t>位运算+动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,8 +1069,8 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1046,8 +1081,8 @@
     <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="8.88671875" style="3"/>
   </cols>
@@ -1055,11 +1090,11 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" s="3">
         <f>SUBTOTAL(3,B3:B200)</f>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3">
         <f>SUBTOTAL(9,F3:F200)</f>
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.2" x14ac:dyDescent="0.25">
@@ -2724,7 +2759,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>32</v>
       </c>
@@ -2748,7 +2783,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -2775,7 +2810,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>63</v>
       </c>
@@ -2802,7 +2837,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>1143</v>
       </c>
@@ -2829,7 +2864,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>120</v>
       </c>
@@ -2856,7 +2891,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>53</v>
       </c>
@@ -2883,7 +2918,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>152</v>
       </c>
@@ -2910,7 +2945,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>198</v>
       </c>
@@ -2937,7 +2972,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>213</v>
       </c>
@@ -2964,7 +2999,7 @@
         <v>44114</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>37</v>
       </c>
@@ -2991,7 +3026,7 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>51</v>
       </c>
@@ -3009,7 +3044,7 @@
       </c>
       <c r="F75" s="4">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G75" s="9">
         <v>44084</v>
@@ -3017,8 +3052,11 @@
       <c r="H75" s="9">
         <v>44122</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="9">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>208</v>
       </c>
@@ -3045,7 +3083,7 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>212</v>
       </c>
@@ -3072,7 +3110,7 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>547</v>
       </c>
@@ -3099,109 +3137,205 @@
         <v>44122</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>191</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F79" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G79" s="9">
+        <v>44124</v>
+      </c>
+      <c r="H79" s="9">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>231</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C80" s="7">
+        <v>1</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F80" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G80" s="9">
+        <v>44124</v>
+      </c>
+      <c r="H80" s="9">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>190</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="7">
+        <v>1</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F81" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G81" s="9">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>52</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="7">
+        <v>3</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="F82" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G82" s="9">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>338</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83" s="7">
+        <v>2</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>170</v>
+      </c>
       <c r="F83" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G83" s="9">
+        <v>44125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F84" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F85" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F86" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F87" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F88" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F89" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F90" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F91" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F92" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F93" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F94" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F95" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F96" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
